--- a/Logistica/Task_1.xlsx
+++ b/Logistica/Task_1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A3C30-4F27-412E-9FCE-6D3BC3094D2F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Answer Report 1" sheetId="2" r:id="rId1"/>
@@ -19,8 +18,8 @@
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$B$12:$C$14</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$B$12:$C$14</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Sheet1!$B$15:$C$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$B$15:$C$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Sheet1!$D$12:$D$14</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">Sheet1!$D$12:$D$14</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">Sheet1!$D$14</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">Sheet1!$D$14</definedName>
@@ -30,20 +29,20 @@
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$F$8</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">integer</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Sheet1!$B$6:$C$6</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet1!$B$6:$C$6</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Sheet1!$D$3:$D$5</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">Sheet1!$D$3:$D$5</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">Sheet1!$D$5</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">Sheet1!$D$5</definedName>
@@ -58,7 +57,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>Верховье</t>
   </si>
@@ -266,13 +265,16 @@
   </si>
   <si>
     <t>Транспортные расходы на перемещение 1 т груза</t>
+  </si>
+  <si>
+    <t>Оптимальное количество тонн груза</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +306,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -406,20 +416,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,23 +580,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -722,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F5B8BF-80F7-4D07-A3D0-D3B9D31B4418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -739,50 +939,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -802,30 +1002,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
         <v>0</v>
       </c>
     </row>
@@ -835,121 +1035,121 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -959,242 +1159,242 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8" t="s">
+      <c r="C33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="10">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="10">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="10">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="10">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="9">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1204,11 +1404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1222,164 +1422,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17">
         <v>100</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="18">
         <v>150</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="19">
         <v>25</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="20">
         <v>50</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="21">
         <v>50</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="22">
         <v>75</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>25</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>22</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="34">
         <f>SUM(B3*B12+B4*B13+B5*B14+C3*C12+C4*C13+C5*C14)</f>
         <v>3250</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="27">
         <v>15</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="28">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="24">
         <f>SUM(B12:C12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="29">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="30">
+        <v>0</v>
+      </c>
+      <c r="D13" s="24">
         <f>SUM(B13:C13)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="31">
+        <v>0</v>
+      </c>
+      <c r="C14" s="32">
         <v>10</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="24">
         <f>SUM(B14:C14)</f>
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="26">
         <f>SUM(B12:B14)</f>
         <v>25</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="26">
         <f>SUM(C12:C14)</f>
         <v>15</v>
       </c>
       <c r="D15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
